--- a/data/trans_dic/P42C_R2-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P42C_R2-Provincia-trans_dic.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.7135736494477043</v>
+        <v>0.707690627062624</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7105908540285016</v>
+        <v>0.7189887410266573</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7625831757130135</v>
+        <v>0.7657032733499226</v>
       </c>
     </row>
     <row r="6">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.8252976336155042</v>
+        <v>0.8249446527195285</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.826785908920636</v>
+        <v>0.8300902983930013</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8559082088801053</v>
+        <v>0.8514342178067886</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.7306448509056694</v>
+        <v>0.7315914969700843</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8136230277414129</v>
+        <v>0.8136162978035859</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.6766553142028541</v>
+        <v>0.6786806171152113</v>
       </c>
     </row>
     <row r="9">
@@ -673,13 +673,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8147791276512437</v>
+        <v>0.8174720686714078</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8850397097278073</v>
+        <v>0.8847646012328662</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.7656708511365722</v>
+        <v>0.769786464148003</v>
       </c>
     </row>
     <row r="10">
@@ -711,13 +711,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.7284577560513208</v>
+        <v>0.7268859810012394</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.9126346236774021</v>
+        <v>0.9142193270704224</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7843719741417998</v>
+        <v>0.7850096515011576</v>
       </c>
     </row>
     <row r="12">
@@ -728,13 +728,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8307285069488016</v>
+        <v>0.8309084771798834</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9672620296199798</v>
+        <v>0.9673369759222946</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8723213066178649</v>
+        <v>0.8714643343062609</v>
       </c>
     </row>
     <row r="13">
@@ -755,7 +755,7 @@
         <v>0.8667028233781445</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.7671346738961629</v>
+        <v>0.767134673896163</v>
       </c>
     </row>
     <row r="14">
@@ -766,13 +766,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6407976770678372</v>
+        <v>0.6427696867974291</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8209571600612658</v>
+        <v>0.8194414585043353</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.7137465640145996</v>
+        <v>0.7168419892753733</v>
       </c>
     </row>
     <row r="15">
@@ -783,13 +783,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7499001500797625</v>
+        <v>0.7487083863272066</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9057736574555463</v>
+        <v>0.9067960032557877</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8118756896188558</v>
+        <v>0.8144157788263036</v>
       </c>
     </row>
     <row r="16">
@@ -821,13 +821,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6349051530388017</v>
+        <v>0.6364464243281805</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9305171559932597</v>
+        <v>0.9252582198850141</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7585274936929804</v>
+        <v>0.7502186164073793</v>
       </c>
     </row>
     <row r="18">
@@ -838,13 +838,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7730067817077503</v>
+        <v>0.7747149072577302</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.9845551018901098</v>
+        <v>0.9843384762800089</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.8519055297665534</v>
+        <v>0.851688466556215</v>
       </c>
     </row>
     <row r="19">
@@ -865,7 +865,7 @@
         <v>0.8199778016352456</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.8347206572329295</v>
+        <v>0.8347206572329297</v>
       </c>
     </row>
     <row r="20">
@@ -876,13 +876,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.7277000343212637</v>
+        <v>0.7204954423933595</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.7651979988310151</v>
+        <v>0.7583060062189115</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.7807694271490685</v>
+        <v>0.7801211360628056</v>
       </c>
     </row>
     <row r="21">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.844387598763488</v>
+        <v>0.8451909209614082</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.8743841791145575</v>
+        <v>0.8701093814741093</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.8772606266528514</v>
+        <v>0.8813071011941868</v>
       </c>
     </row>
     <row r="22">
@@ -920,7 +920,7 @@
         <v>0.7648052745124979</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>0.5647747003588729</v>
+        <v>0.564774700358873</v>
       </c>
     </row>
     <row r="23">
@@ -931,13 +931,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.7171202233222725</v>
+        <v>0.7170320775171553</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.7253484321309306</v>
+        <v>0.7241438678382301</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.5213941235790159</v>
+        <v>0.5238506180164234</v>
       </c>
     </row>
     <row r="24">
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.7969643638612071</v>
+        <v>0.7939257046860585</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.7984394395286859</v>
+        <v>0.7966160127020016</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.610728659700826</v>
+        <v>0.6074504319281816</v>
       </c>
     </row>
     <row r="25">
@@ -986,13 +986,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.7351076294348579</v>
+        <v>0.7349488541530044</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.8288453618874703</v>
+        <v>0.8262940836606439</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8508136626829853</v>
+        <v>0.8502392062616811</v>
       </c>
     </row>
     <row r="27">
@@ -1003,13 +1003,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.8090074769021798</v>
+        <v>0.8121006434460064</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.8827598176950453</v>
+        <v>0.8812486247515136</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9089479996385681</v>
+        <v>0.9097265048613701</v>
       </c>
     </row>
     <row r="28">
@@ -1041,13 +1041,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.7398432412598196</v>
+        <v>0.7441212467346331</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.8301105147549896</v>
+        <v>0.8304030318228367</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.7403362400465359</v>
+        <v>0.7413612018024193</v>
       </c>
     </row>
     <row r="30">
@@ -1058,13 +1058,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.7773379645932481</v>
+        <v>0.7781572412129818</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.8586074330914214</v>
+        <v>0.8584836103462492</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.7727137744767807</v>
+        <v>0.7743031247886487</v>
       </c>
     </row>
     <row r="31">
@@ -1203,13 +1203,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>167601</v>
+        <v>166220</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>161725</v>
+        <v>163636</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>132008</v>
+        <v>132549</v>
       </c>
     </row>
     <row r="7">
@@ -1220,13 +1220,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>193843</v>
+        <v>193760</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>188170</v>
+        <v>188922</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>148164</v>
+        <v>147389</v>
       </c>
     </row>
     <row r="8">
@@ -1275,13 +1275,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>317417</v>
+        <v>317828</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>325029</v>
+        <v>325027</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>235391</v>
+        <v>236096</v>
       </c>
     </row>
     <row r="11">
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>353968</v>
+        <v>355138</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>353559</v>
+        <v>353449</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>266358</v>
+        <v>267789</v>
       </c>
     </row>
     <row r="12">
@@ -1347,13 +1347,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>195072</v>
+        <v>194651</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>251615</v>
+        <v>252052</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>144626</v>
+        <v>144743</v>
       </c>
     </row>
     <row r="15">
@@ -1364,13 +1364,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>222458</v>
+        <v>222506</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>266676</v>
+        <v>266697</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>160842</v>
+        <v>160684</v>
       </c>
     </row>
     <row r="16">
@@ -1419,13 +1419,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>185107</v>
+        <v>185676</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>234285</v>
+        <v>233852</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>178691</v>
+        <v>179466</v>
       </c>
     </row>
     <row r="19">
@@ -1436,13 +1436,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>216623</v>
+        <v>216279</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>258490</v>
+        <v>258781</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>203258</v>
+        <v>203894</v>
       </c>
     </row>
     <row r="20">
@@ -1491,13 +1491,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>107549</v>
+        <v>107810</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>157451</v>
+        <v>156561</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>106041</v>
+        <v>104879</v>
       </c>
     </row>
     <row r="23">
@@ -1508,13 +1508,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>130943</v>
+        <v>131232</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>166595</v>
+        <v>166558</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>119095</v>
+        <v>119064</v>
       </c>
     </row>
     <row r="24">
@@ -1563,13 +1563,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>156304</v>
+        <v>154757</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>158601</v>
+        <v>157173</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>109629</v>
+        <v>109538</v>
       </c>
     </row>
     <row r="27">
@@ -1580,13 +1580,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>181368</v>
+        <v>181540</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>181232</v>
+        <v>180346</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>123177</v>
+        <v>123745</v>
       </c>
     </row>
     <row r="28">
@@ -1635,13 +1635,13 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>401110</v>
+        <v>401061</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>392519</v>
+        <v>391867</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>234561</v>
+        <v>235666</v>
       </c>
     </row>
     <row r="31">
@@ -1652,13 +1652,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>445770</v>
+        <v>444070</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>432072</v>
+        <v>431085</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>274750</v>
+        <v>273276</v>
       </c>
     </row>
     <row r="32">
@@ -1707,13 +1707,13 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>419413</v>
+        <v>419322</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>556135</v>
+        <v>554423</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>361118</v>
+        <v>360874</v>
       </c>
     </row>
     <row r="35">
@@ -1724,13 +1724,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>461576</v>
+        <v>463341</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>592310</v>
+        <v>591296</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>385792</v>
+        <v>386122</v>
       </c>
     </row>
     <row r="36">
@@ -1779,13 +1779,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>2027196</v>
+        <v>2038918</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>2305013</v>
+        <v>2305825</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1562289</v>
+        <v>1564452</v>
       </c>
     </row>
     <row r="39">
@@ -1796,13 +1796,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2129932</v>
+        <v>2132177</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>2384142</v>
+        <v>2383798</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1630614</v>
+        <v>1633968</v>
       </c>
     </row>
     <row r="40">
